--- a/OceanSimulation/Docs/DataPoints.xlsx
+++ b/OceanSimulation/Docs/DataPoints.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Guildhall\SD_Git\Guildhall\OceanSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\OceanSimulation\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0B55FB-F9CD-4F90-90B9-DDCF6BCA68E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="53">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>▶</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="50">
   <si>
     <t>[0]</t>
   </si>
@@ -188,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,19 +278,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,21 +316,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:H57"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +635,7 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -617,43 +644,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4"/>
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="A2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <f>D3=F3</f>
@@ -662,18 +689,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="b">
         <f t="shared" ref="G4:G18" si="0">D4=F4</f>
@@ -682,18 +709,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="b">
         <f t="shared" si="0"/>
@@ -702,18 +729,18 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" t="b">
         <f t="shared" si="0"/>
@@ -722,18 +749,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7" t="b">
         <f t="shared" si="0"/>
@@ -742,18 +769,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" t="b">
         <f t="shared" si="0"/>
@@ -762,18 +789,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="b">
         <f t="shared" si="0"/>
@@ -782,18 +809,18 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="b">
         <f t="shared" si="0"/>
@@ -802,18 +829,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="b">
         <f t="shared" si="0"/>
@@ -822,18 +849,18 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" t="b">
         <f t="shared" si="0"/>
@@ -842,18 +869,18 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13" t="b">
         <f t="shared" si="0"/>
@@ -862,18 +889,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" t="b">
         <f t="shared" si="0"/>
@@ -882,18 +909,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" t="b">
         <f t="shared" si="0"/>
@@ -902,18 +929,18 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G16" t="b">
         <f t="shared" si="0"/>
@@ -922,18 +949,18 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" t="b">
         <f t="shared" si="0"/>
@@ -942,18 +969,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" t="b">
         <f t="shared" si="0"/>
@@ -961,46 +988,46 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="17"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="13"/>
+      <c r="A20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="A21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G22" t="b">
         <f>D22=F22</f>
@@ -1009,18 +1036,18 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23" t="b">
         <f t="shared" ref="G23:G37" si="1">D23=F23</f>
@@ -1029,18 +1056,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24" t="b">
         <f t="shared" si="1"/>
@@ -1049,18 +1076,18 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="b">
         <f t="shared" si="1"/>
@@ -1069,18 +1096,18 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G26" t="b">
         <f t="shared" si="1"/>
@@ -1089,18 +1116,18 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G27" t="b">
         <f t="shared" si="1"/>
@@ -1109,18 +1136,18 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" t="b">
         <f t="shared" si="1"/>
@@ -1129,18 +1156,18 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G29" t="b">
         <f t="shared" si="1"/>
@@ -1149,18 +1176,18 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30" t="b">
         <f t="shared" si="1"/>
@@ -1169,18 +1196,18 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" t="b">
         <f t="shared" si="1"/>
@@ -1189,329 +1216,377 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G32" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G33" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G34" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G35" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G36" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="18" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="L39" s="9">
+        <v>-0.26324129099999999</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-0.11522666400000001</v>
+      </c>
+      <c r="N39" s="22">
+        <v>0.49369460300000001</v>
+      </c>
+      <c r="O39" s="9">
+        <v>-0.11522666400000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="L40" s="24">
+        <v>-2.2175476E-2</v>
+      </c>
+      <c r="M40" s="24">
+        <v>8.4209546400000002E-2</v>
+      </c>
+      <c r="N40" s="25">
+        <v>-0.146243602</v>
+      </c>
+      <c r="O40" s="24">
+        <v>8.4209546400000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="L41" s="26">
+        <v>-0.26324129099999999</v>
+      </c>
+      <c r="M41" s="26">
+        <v>-0.11522666400000001</v>
+      </c>
+      <c r="N41" s="27">
+        <v>0.49369460300000001</v>
+      </c>
+      <c r="O41" s="26">
+        <v>-0.11522666400000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4">
         <v>-2</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>-2</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>-0.146243602</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
         <v>-2</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="4">
         <v>-2</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="5">
         <v>-3.7683956300000002E-2</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="5">
         <v>2.4350192400000002E-2</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="5">
         <v>-0.40690636600000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="8">
+      <c r="L42" s="5">
+        <v>-0.40690636600000002</v>
+      </c>
+      <c r="M42" s="5">
+        <v>-0.16392704799999999</v>
+      </c>
+      <c r="N42" s="23">
+        <v>0.73476040399999998</v>
+      </c>
+      <c r="O42" s="5">
+        <v>-0.16392704799999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="6">
         <v>-1</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="6">
         <v>-2</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>7.3121786100000002E-2</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="E43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5">
         <v>-1</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="5">
         <v>-2</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="5">
         <v>3.1017074400000001E-2</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="5">
         <v>-3.7683956300000002E-2</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="5">
         <v>-0.16392704799999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="9">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
         <v>-2</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="7">
         <v>7.3121771200000005E-2</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="E44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
         <v>-2</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
         <v>-9.9718108799999997E-2</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="5">
         <v>0.73476040399999998</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
         <v>-2</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>-0.146243602</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="E45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
         <v>-2</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="5">
         <v>3.1017074400000001E-2</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="5">
         <v>-3.7683956300000002E-2</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="5">
         <v>-0.16392704799999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="11">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="9">
         <v>-2</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>-1</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>0.66408657999999998</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="8">
+      <c r="E46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6">
         <v>-2</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>-1</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="6">
         <v>6.20341487E-2</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="6">
         <v>-9.6182718900000005E-2</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="6">
         <v>-0.26324129099999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1">
         <v>-1</v>
@@ -1522,156 +1597,156 @@
       <c r="D47" s="1">
         <v>-0.30378034700000001</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="8">
+      <c r="E47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6">
         <v>-1</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="6">
         <v>-1</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="6">
         <v>-7.9108431899999998E-2</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="6">
         <v>6.20341487E-2</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="6">
         <v>-0.11522666400000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="10">
-        <v>0</v>
-      </c>
-      <c r="C48" s="10">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8">
         <v>-1</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>-0.36030626300000002</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="E48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
         <v>-1</v>
       </c>
-      <c r="H48" s="8">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8">
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
         <v>0.220251009</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="6">
         <v>0.49369460300000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="12">
-        <v>1</v>
-      </c>
-      <c r="C49" s="12">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="10">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10">
         <v>-1</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <v>0.66408657999999998</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="E49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
         <v>-1</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="6">
         <v>-7.9108431899999998E-2</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="6">
         <v>6.20341487E-2</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="6">
         <v>-0.11522666400000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="12">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="10">
         <v>-2</v>
       </c>
-      <c r="C50" s="12">
-        <v>0</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
         <v>0.66408657999999998</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="7">
         <v>-2</v>
       </c>
-      <c r="G50" s="9">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9">
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
         <v>7.7542707299999999E-2</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <v>-0.23889110999999999</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="7">
         <v>-2.2175476E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="10">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="8">
         <v>-1</v>
       </c>
-      <c r="C51" s="10">
-        <v>0</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8">
         <v>-0.36030626300000002</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="9">
+      <c r="E51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="7">
         <v>-1</v>
       </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
         <v>-0.15821690899999999</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="7">
         <v>7.7542707299999999E-2</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="7">
         <v>8.4209546400000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1682,381 +1757,641 @@
       <c r="D52" s="1">
         <v>-0.30378034700000001</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
+      <c r="E52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
         <v>0.39397651</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="7">
         <v>-0.146243602</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="11">
-        <v>1</v>
-      </c>
-      <c r="C53" s="11">
-        <v>0</v>
-      </c>
-      <c r="D53" s="11">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0</v>
+      </c>
+      <c r="D53" s="9">
         <v>0.66408669899999995</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
+      <c r="E53" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
         <v>-0.15821690899999999</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="7">
         <v>7.7542707299999999E-2</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="7">
         <v>8.4209546400000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="5">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="3">
         <v>-2</v>
       </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
         <v>-0.146243602</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="11">
+      <c r="E54" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="9">
         <v>-2</v>
       </c>
-      <c r="G54" s="11">
-        <v>1</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9">
         <v>6.20341487E-2</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="9">
         <v>-9.6182718900000005E-2</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="9">
         <v>-0.26324129099999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="9">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="7">
         <v>-1</v>
       </c>
-      <c r="C55" s="9">
-        <v>1</v>
-      </c>
-      <c r="D55" s="9">
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
         <v>7.3121771200000005E-2</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="11">
+      <c r="E55" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="9">
         <v>-1</v>
       </c>
-      <c r="G55" s="11">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11">
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9">
         <v>-7.9108431899999998E-2</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="9">
         <v>6.20341487E-2</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="9">
         <v>-0.11522666400000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="8">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="8">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
         <v>7.3121793599999999E-2</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>1</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
+      <c r="E56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
         <v>0.220251009</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="9">
         <v>0.49369460300000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
         <v>-0.146243602</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="11">
-        <v>1</v>
-      </c>
-      <c r="G57" s="11">
-        <v>1</v>
-      </c>
-      <c r="H57" s="11">
+      <c r="E57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9">
         <v>-7.9108431899999998E-2</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="9">
         <v>6.20341487E-2</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="9">
         <v>-0.11522666400000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F64" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>-4.0184162599999997E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66">
-        <v>-3.2147344199999997E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E67" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E68" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68">
-        <v>-3.2147344199999997E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E69" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69">
-        <v>-6.4294688399999994E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70">
-        <v>-8.0368414499999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E72" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72">
-        <v>-8.0368414499999999E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73">
-        <v>-8.0368384700000003E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74">
-        <v>-0.160736874</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E75" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E76" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76">
-        <v>-0.160736874</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E77" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77">
-        <v>-6.4294688399999994E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E78" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78">
-        <v>-8.0368414499999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E79" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E80" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s">
-        <v>33</v>
-      </c>
-      <c r="G80">
-        <v>-8.0368414499999999E-2</v>
-      </c>
+      <c r="L57" s="3">
+        <v>-0.146243602</v>
+      </c>
+      <c r="M57" s="7">
+        <v>7.3121771200000005E-2</v>
+      </c>
+      <c r="N57" s="6">
+        <v>7.3121793599999999E-2</v>
+      </c>
+      <c r="O57" s="5">
+        <v>-0.146243602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L58" s="10">
+        <v>0.66408657999999998</v>
+      </c>
+      <c r="M58" s="8">
+        <v>-0.36030626300000002</v>
+      </c>
+      <c r="N58" s="1">
+        <v>-0.30378034700000001</v>
+      </c>
+      <c r="O58" s="9">
+        <v>0.66408669899999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L59" s="9">
+        <v>0.66408657999999998</v>
+      </c>
+      <c r="M59" s="1">
+        <v>-0.30378034700000001</v>
+      </c>
+      <c r="N59" s="8">
+        <v>-0.36030626300000002</v>
+      </c>
+      <c r="O59" s="10">
+        <v>0.66408657999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L60" s="4">
+        <v>-0.146243602</v>
+      </c>
+      <c r="M60" s="6">
+        <v>7.3121786100000002E-2</v>
+      </c>
+      <c r="N60" s="7">
+        <v>7.3121771200000005E-2</v>
+      </c>
+      <c r="O60" s="3">
+        <v>-0.146243602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
